--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-04-29</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
@@ -3560,10 +3560,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H90" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:8">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220429_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="282">
   <si>
     <t>사이트</t>
   </si>
@@ -775,7 +775,7 @@
     <t>빅히트</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>에버그로우</t>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>플렉스엠</t>
@@ -1275,7 +1272,7 @@
         <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1301,7 +1298,7 @@
         <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1379,7 +1376,7 @@
         <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1405,7 +1402,7 @@
         <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1431,7 +1428,7 @@
         <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1457,7 +1454,7 @@
         <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1483,7 +1480,7 @@
         <v>244</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1535,7 +1532,7 @@
         <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1587,7 +1584,7 @@
         <v>248</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1613,7 +1610,7 @@
         <v>243</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1639,7 +1636,7 @@
         <v>249</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1691,7 +1688,7 @@
         <v>249</v>
       </c>
       <c r="H18" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1717,7 +1714,7 @@
         <v>250</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1743,7 +1740,7 @@
         <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1769,7 +1766,7 @@
         <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1821,7 +1818,7 @@
         <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1873,7 +1870,7 @@
         <v>253</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1899,7 +1896,7 @@
         <v>254</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2029,7 +2026,7 @@
         <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2055,7 +2052,7 @@
         <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2081,7 +2078,7 @@
         <v>253</v>
       </c>
       <c r="H33" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2107,7 +2104,7 @@
         <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2133,7 +2130,7 @@
         <v>258</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2159,7 +2156,7 @@
         <v>259</v>
       </c>
       <c r="H36" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2185,7 +2182,7 @@
         <v>246</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2211,7 +2208,7 @@
         <v>260</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2237,7 +2234,7 @@
         <v>249</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2263,7 +2260,7 @@
         <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2315,7 +2312,7 @@
         <v>258</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2341,7 +2338,7 @@
         <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2367,7 +2364,7 @@
         <v>249</v>
       </c>
       <c r="H44" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2419,7 +2416,7 @@
         <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2445,7 +2442,7 @@
         <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2471,7 +2468,7 @@
         <v>249</v>
       </c>
       <c r="H48" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2497,7 +2494,7 @@
         <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2575,7 +2572,7 @@
         <v>263</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>264</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2624,10 +2621,10 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2653,7 +2650,7 @@
         <v>250</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2702,10 +2699,10 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H57" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>258</v>
       </c>
       <c r="H60" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2809,7 +2806,7 @@
         <v>249</v>
       </c>
       <c r="H61" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2910,10 +2907,10 @@
         <v>210</v>
       </c>
       <c r="G65" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H65" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2939,7 +2936,7 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2965,7 +2962,7 @@
         <v>250</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2988,10 +2985,10 @@
         <v>212</v>
       </c>
       <c r="G68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3014,10 +3011,10 @@
         <v>213</v>
       </c>
       <c r="G69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3040,10 +3037,10 @@
         <v>214</v>
       </c>
       <c r="G70" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3069,7 +3066,7 @@
         <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3121,7 +3118,7 @@
         <v>249</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3147,7 +3144,7 @@
         <v>249</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3170,10 +3167,10 @@
         <v>218</v>
       </c>
       <c r="G75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3196,10 +3193,10 @@
         <v>219</v>
       </c>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H76" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3225,7 +3222,7 @@
         <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3248,10 +3245,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3274,10 +3271,10 @@
         <v>221</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3300,10 +3297,10 @@
         <v>222</v>
       </c>
       <c r="G80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3329,7 +3326,7 @@
         <v>249</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3352,10 +3349,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3381,7 +3378,7 @@
         <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3407,7 +3404,7 @@
         <v>249</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3430,10 +3427,10 @@
         <v>226</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3459,7 +3456,7 @@
         <v>237</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3482,10 +3479,10 @@
         <v>227</v>
       </c>
       <c r="G87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H87" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3511,7 +3508,7 @@
         <v>250</v>
       </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3534,10 +3531,10 @@
         <v>228</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3563,7 +3560,7 @@
         <v>237</v>
       </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3586,10 +3583,10 @@
         <v>229</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3641,7 +3638,7 @@
         <v>250</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3667,7 +3664,7 @@
         <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3716,10 +3713,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3771,7 +3768,7 @@
         <v>250</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3794,10 +3791,10 @@
         <v>234</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3820,10 +3817,10 @@
         <v>235</v>
       </c>
       <c r="G100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3846,10 +3843,10 @@
         <v>236</v>
       </c>
       <c r="G101" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H101" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
